--- a/data/Macario CarvajalT2-2024.xlsx
+++ b/data/Macario CarvajalT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>276.80484127</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -892,6 +894,7 @@
         <v>0.00552125</v>
       </c>
     </row>
+    <row r="29"/>
     <row r="30">
       <c r="D30" s="6" t="inlineStr">
         <is>
@@ -917,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,6 +933,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -937,6 +942,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -944,6 +950,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1248,6 +1255,7 @@
         <v>0.00052966</v>
       </c>
     </row>
+    <row r="31"/>
     <row r="32">
       <c r="C32" s="6" t="inlineStr">
         <is>
@@ -1273,7 +1281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,6 +1294,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1293,6 +1303,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1300,6 +1311,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1383,6 +1395,7 @@
         <v>0.0002506</v>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="C15" s="6" t="inlineStr">
         <is>
